--- a/Models/DEModel_modified.xlsx
+++ b/Models/DEModel_modified.xlsx
@@ -4854,11 +4854,7 @@
       <c r="N60" s="5" t="n"/>
       <c r="O60" s="4" t="n"/>
       <c r="Q60" s="5" t="n"/>
-      <c r="R60" s="5" t="inlineStr">
-        <is>
-          <t>[2020 660;2050 555]</t>
-        </is>
-      </c>
+      <c r="R60" s="5" t="n"/>
       <c r="S60" s="4" t="n"/>
       <c r="T60" s="5" t="n"/>
       <c r="U60" s="5" t="n"/>
@@ -4960,7 +4956,11 @@
       <c r="N62" s="5" t="n"/>
       <c r="O62" s="4" t="n"/>
       <c r="Q62" s="5" t="n"/>
-      <c r="R62" s="5" t="n"/>
+      <c r="R62" s="5" t="inlineStr">
+        <is>
+          <t>46.87216658103186</t>
+        </is>
+      </c>
       <c r="S62" s="4" t="n"/>
       <c r="T62" s="5" t="n"/>
       <c r="U62" s="5" t="n"/>

--- a/Models/DEModel_modified.xlsx
+++ b/Models/DEModel_modified.xlsx
@@ -4909,7 +4909,7 @@
         <v>104</v>
       </c>
       <c r="R61" s="5" t="n">
-        <v>3500</v>
+        <v>178.08</v>
       </c>
       <c r="S61" s="4" t="n"/>
       <c r="T61" s="5" t="n"/>
@@ -4956,11 +4956,7 @@
       <c r="N62" s="5" t="n"/>
       <c r="O62" s="4" t="n"/>
       <c r="Q62" s="5" t="n"/>
-      <c r="R62" s="5" t="inlineStr">
-        <is>
-          <t>46.87216658103186</t>
-        </is>
-      </c>
+      <c r="R62" s="5" t="n"/>
       <c r="S62" s="4" t="n"/>
       <c r="T62" s="5" t="n"/>
       <c r="U62" s="5" t="n"/>
